--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par saison/evo_pressure.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par saison/evo_pressure.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.592974567973747</v>
+        <v>3.233579142858004</v>
       </c>
       <c r="D2" t="n">
-        <v>1.873341718418323</v>
+        <v>4.19058789318432</v>
       </c>
       <c r="E2" t="n">
-        <v>2.410640597050704</v>
+        <v>4.939245868951578</v>
       </c>
       <c r="F2" t="n">
-        <v>51.32950930390696</v>
+        <v>52.7485690233027</v>
       </c>
     </row>
     <row r="3">
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.507612589697516</v>
+        <v>3.626068846081068</v>
       </c>
       <c r="D3" t="n">
-        <v>1.697504142173806</v>
+        <v>3.759053938736459</v>
       </c>
       <c r="E3" t="n">
-        <v>2.000435193492698</v>
+        <v>4.337869601187783</v>
       </c>
       <c r="F3" t="n">
-        <v>32.68894191803353</v>
+        <v>19.63009488570535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9188241539844462</v>
+        <v>1.592974567973747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9609187027896855</v>
+        <v>1.873341718418323</v>
       </c>
       <c r="E4" t="n">
-        <v>1.385890456071857</v>
+        <v>2.410640597050704</v>
       </c>
       <c r="F4" t="n">
-        <v>50.83304569889628</v>
+        <v>51.32950930390696</v>
       </c>
     </row>
     <row r="5">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8045322938832</v>
+        <v>1.507612589697516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.901422072927281</v>
+        <v>1.697504142173806</v>
       </c>
       <c r="E5" t="n">
-        <v>1.06381422774367</v>
+        <v>2.000435193492698</v>
       </c>
       <c r="F5" t="n">
-        <v>32.22766019857388</v>
+        <v>32.68894191803353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.304038907943002</v>
+        <v>0.9188241539844462</v>
       </c>
       <c r="D6" t="n">
-        <v>6.289414275454323</v>
+        <v>0.9609187027896855</v>
       </c>
       <c r="E6" t="n">
-        <v>8.565383007793118</v>
+        <v>1.385890456071857</v>
       </c>
       <c r="F6" t="n">
-        <v>35.87135379194525</v>
+        <v>50.83304569889628</v>
       </c>
     </row>
     <row r="7">
@@ -606,22 +606,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.37167643037771</v>
+        <v>0.8045322938832</v>
       </c>
       <c r="D7" t="n">
-        <v>6.102494302667355</v>
+        <v>0.901422072927281</v>
       </c>
       <c r="E7" t="n">
-        <v>6.532750709376882</v>
+        <v>1.06381422774367</v>
       </c>
       <c r="F7" t="n">
-        <v>21.61474716595189</v>
+        <v>32.22766019857388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -630,16 +630,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.052562898112869</v>
+        <v>67.73022789687165</v>
       </c>
       <c r="D8" t="n">
-        <v>8.200243546307693</v>
+        <v>79.3744028564345</v>
       </c>
       <c r="E8" t="n">
-        <v>9.708868999212646</v>
+        <v>98.99125649724894</v>
       </c>
       <c r="F8" t="n">
-        <v>20.56868256798012</v>
+        <v>46.15520952915793</v>
       </c>
     </row>
     <row r="9">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.110058424214893</v>
+        <v>74.09508125458729</v>
       </c>
       <c r="D9" t="n">
-        <v>7.732909696259093</v>
+        <v>78.218748929909</v>
       </c>
       <c r="E9" t="n">
-        <v>8.461886087333903</v>
+        <v>87.02428828557123</v>
       </c>
       <c r="F9" t="n">
-        <v>19.01289106872961</v>
+        <v>17.44948087250189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81.95505528514039</v>
+        <v>40.75911675715743</v>
       </c>
       <c r="D10" t="n">
-        <v>85.2718933290428</v>
+        <v>40.17236613513633</v>
       </c>
       <c r="E10" t="n">
-        <v>95.52800501858587</v>
+        <v>58.87880060811208</v>
       </c>
       <c r="F10" t="n">
-        <v>16.56145516127356</v>
+        <v>44.45553606794675</v>
       </c>
     </row>
     <row r="11">
@@ -694,22 +694,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>79.74825189438425</v>
+        <v>40.38931052684117</v>
       </c>
       <c r="D11" t="n">
-        <v>83.78009593268303</v>
+        <v>41.87579973515285</v>
       </c>
       <c r="E11" t="n">
-        <v>90.11001493881376</v>
+        <v>45.8520550095071</v>
       </c>
       <c r="F11" t="n">
-        <v>12.99309113151754</v>
+        <v>13.52522341037638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>110.8866630859001</v>
+        <v>6.304038907943002</v>
       </c>
       <c r="D12" t="n">
-        <v>117.5341365238099</v>
+        <v>6.289414275454323</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2296056586938</v>
+        <v>8.565383007793118</v>
       </c>
       <c r="F12" t="n">
-        <v>16.54206381752518</v>
+        <v>35.87135379194525</v>
       </c>
     </row>
     <row r="13">
@@ -738,22 +738,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>111.218504567982</v>
+        <v>5.37167643037771</v>
       </c>
       <c r="D13" t="n">
-        <v>115.5365121148684</v>
+        <v>6.102494302667355</v>
       </c>
       <c r="E13" t="n">
-        <v>124.5727367736607</v>
+        <v>6.532750709376882</v>
       </c>
       <c r="F13" t="n">
-        <v>12.00720352926154</v>
+        <v>21.61474716595189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28.93160780075969</v>
+        <v>2.011232922460342</v>
       </c>
       <c r="D14" t="n">
-        <v>32.2622431947671</v>
+        <v>2.408507848328482</v>
       </c>
       <c r="E14" t="n">
-        <v>33.70160064010796</v>
+        <v>2.699293578321392</v>
       </c>
       <c r="F14" t="n">
-        <v>16.48713362975638</v>
+        <v>34.21088866322577</v>
       </c>
     </row>
     <row r="15">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>31.47025267359777</v>
+        <v>1.91767870524186</v>
       </c>
       <c r="D15" t="n">
-        <v>31.75641618218544</v>
+        <v>2.040091166615808</v>
       </c>
       <c r="E15" t="n">
-        <v>34.46272183484692</v>
+        <v>2.231142913077333</v>
       </c>
       <c r="F15" t="n">
-        <v>9.508881902812632</v>
+        <v>16.34602329256912</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.589130118916932</v>
+        <v>8.052562898112869</v>
       </c>
       <c r="D16" t="n">
-        <v>4.007556511189613</v>
+        <v>8.200243546307693</v>
       </c>
       <c r="E16" t="n">
-        <v>4.135877655214959</v>
+        <v>9.708868999212646</v>
       </c>
       <c r="F16" t="n">
-        <v>15.23342754881832</v>
+        <v>20.56868256798012</v>
       </c>
     </row>
     <row r="17">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.512799806492452</v>
+        <v>7.110058424214893</v>
       </c>
       <c r="D17" t="n">
-        <v>3.774916496715337</v>
+        <v>7.732909696259093</v>
       </c>
       <c r="E17" t="n">
-        <v>4.051664150279227</v>
+        <v>8.461886087333903</v>
       </c>
       <c r="F17" t="n">
-        <v>15.34002429602825</v>
+        <v>19.01289106872961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>72.06459379320886</v>
+        <v>81.95505528514039</v>
       </c>
       <c r="D18" t="n">
-        <v>71.86519903015774</v>
+        <v>85.2718933290428</v>
       </c>
       <c r="E18" t="n">
-        <v>82.06453223751136</v>
+        <v>95.52800501858587</v>
       </c>
       <c r="F18" t="n">
-        <v>13.87635441753488</v>
+        <v>16.56145516127356</v>
       </c>
     </row>
     <row r="19">
@@ -870,22 +870,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61.9617726956633</v>
+        <v>79.74825189438425</v>
       </c>
       <c r="D19" t="n">
-        <v>68.86519958746355</v>
+        <v>83.78009593268303</v>
       </c>
       <c r="E19" t="n">
-        <v>74.85314098456587</v>
+        <v>90.11001493881376</v>
       </c>
       <c r="F19" t="n">
-        <v>20.80535744550258</v>
+        <v>12.99309113151754</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19.18283405800827</v>
+        <v>110.8866630859001</v>
       </c>
       <c r="D20" t="n">
-        <v>19.58648846916121</v>
+        <v>117.5341365238099</v>
       </c>
       <c r="E20" t="n">
-        <v>21.73595382610306</v>
+        <v>129.2296056586938</v>
       </c>
       <c r="F20" t="n">
-        <v>13.30939818576465</v>
+        <v>16.54206381752518</v>
       </c>
     </row>
     <row r="21">
@@ -914,22 +914,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.33418522377216</v>
+        <v>111.218504567982</v>
       </c>
       <c r="D21" t="n">
-        <v>17.10340714559398</v>
+        <v>115.5365121148684</v>
       </c>
       <c r="E21" t="n">
-        <v>19.21712725753227</v>
+        <v>124.5727367736607</v>
       </c>
       <c r="F21" t="n">
-        <v>25.32212815416169</v>
+        <v>12.00720352926154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -938,16 +938,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.119363726726911</v>
+        <v>28.93160780075969</v>
       </c>
       <c r="D22" t="n">
-        <v>3.15860321248906</v>
+        <v>32.2622431947671</v>
       </c>
       <c r="E22" t="n">
-        <v>3.531582012538288</v>
+        <v>33.70160064010796</v>
       </c>
       <c r="F22" t="n">
-        <v>13.21481949281723</v>
+        <v>16.48713362975638</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.440245156461023</v>
+        <v>31.47025267359777</v>
       </c>
       <c r="D23" t="n">
-        <v>2.880916242049622</v>
+        <v>31.75641618218544</v>
       </c>
       <c r="E23" t="n">
-        <v>3.198585986536425</v>
+        <v>34.46272183484691</v>
       </c>
       <c r="F23" t="n">
-        <v>31.07641984525807</v>
+        <v>9.508881902812611</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>91.26799782428381</v>
+        <v>5.165879293083973</v>
       </c>
       <c r="D24" t="n">
-        <v>91.98330822931013</v>
+        <v>5.703110359847686</v>
       </c>
       <c r="E24" t="n">
-        <v>103.1371696892224</v>
+        <v>5.952870654391068</v>
       </c>
       <c r="F24" t="n">
-        <v>13.00474662300584</v>
+        <v>15.23441251058096</v>
       </c>
     </row>
     <row r="25">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>80.82849201567893</v>
+        <v>6.051017172177921</v>
       </c>
       <c r="D25" t="n">
-        <v>88.88272193246979</v>
+        <v>6.5776437253291</v>
       </c>
       <c r="E25" t="n">
-        <v>96.31081883995294</v>
+        <v>6.517418633433905</v>
       </c>
       <c r="F25" t="n">
-        <v>19.15454122448651</v>
+        <v>7.70781916469283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15.59370393909133</v>
+        <v>3.589130118916932</v>
       </c>
       <c r="D26" t="n">
-        <v>15.5789319579716</v>
+        <v>4.007556511189613</v>
       </c>
       <c r="E26" t="n">
-        <v>17.60007617088811</v>
+        <v>4.135877655214959</v>
       </c>
       <c r="F26" t="n">
-        <v>12.86655331942699</v>
+        <v>15.23342754881832</v>
       </c>
     </row>
     <row r="27">
@@ -1046,22 +1046,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11.82138541727971</v>
+        <v>3.512799806492452</v>
       </c>
       <c r="D27" t="n">
-        <v>13.32849064887864</v>
+        <v>3.774916496715337</v>
       </c>
       <c r="E27" t="n">
-        <v>15.16546310725304</v>
+        <v>4.051664150279227</v>
       </c>
       <c r="F27" t="n">
-        <v>28.28837375596585</v>
+        <v>15.34002429602825</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>76.74969751504148</v>
+        <v>86.35088840088704</v>
       </c>
       <c r="D28" t="n">
-        <v>76.6818443840906</v>
+        <v>89.53916647682388</v>
       </c>
       <c r="E28" t="n">
-        <v>86.44445893810969</v>
+        <v>98.47078802645009</v>
       </c>
       <c r="F28" t="n">
-        <v>12.63166075823064</v>
+        <v>14.0356397600636</v>
       </c>
     </row>
     <row r="29">
@@ -1090,22 +1090,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>70.72879672055363</v>
+        <v>79.48678752269956</v>
       </c>
       <c r="D29" t="n">
-        <v>74.77471050276974</v>
+        <v>84.20873614637166</v>
       </c>
       <c r="E29" t="n">
-        <v>82.58892288068478</v>
+        <v>89.5340598838249</v>
       </c>
       <c r="F29" t="n">
-        <v>16.76845458998826</v>
+        <v>12.64017917223799</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1114,16 +1114,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>62.95749734015892</v>
+        <v>72.06459379320886</v>
       </c>
       <c r="D30" t="n">
-        <v>61.44855710706</v>
+        <v>71.86519903015774</v>
       </c>
       <c r="E30" t="n">
-        <v>70.82781662781403</v>
+        <v>82.06453223751136</v>
       </c>
       <c r="F30" t="n">
-        <v>12.50100404266679</v>
+        <v>13.87635441753488</v>
       </c>
     </row>
     <row r="31">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>51.85531700331261</v>
+        <v>61.9617726956633</v>
       </c>
       <c r="D31" t="n">
-        <v>58.3989538125645</v>
+        <v>68.86519958746355</v>
       </c>
       <c r="E31" t="n">
-        <v>64.08204753818748</v>
+        <v>74.85314098456587</v>
       </c>
       <c r="F31" t="n">
-        <v>23.57854746909331</v>
+        <v>20.80535744550258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.23734208725539</v>
+        <v>19.18283405800827</v>
       </c>
       <c r="D32" t="n">
-        <v>6.373011028216816</v>
+        <v>19.58648846916121</v>
       </c>
       <c r="E32" t="n">
-        <v>7.005592049041718</v>
+        <v>21.73595382610306</v>
       </c>
       <c r="F32" t="n">
-        <v>12.31694447793836</v>
+        <v>13.30939818576465</v>
       </c>
     </row>
     <row r="33">
@@ -1178,22 +1178,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.891342481505492</v>
+        <v>15.33418522377216</v>
       </c>
       <c r="D33" t="n">
-        <v>5.739298815154657</v>
+        <v>17.10340714559398</v>
       </c>
       <c r="E33" t="n">
-        <v>6.23119532036499</v>
+        <v>19.21712725753227</v>
       </c>
       <c r="F33" t="n">
-        <v>27.39233337116702</v>
+        <v>25.32212815416169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>60.35705093175095</v>
+        <v>3.119363726726911</v>
       </c>
       <c r="D34" t="n">
-        <v>59.43767060762536</v>
+        <v>3.15860321248906</v>
       </c>
       <c r="E34" t="n">
-        <v>67.72483866786148</v>
+        <v>3.531582012538288</v>
       </c>
       <c r="F34" t="n">
-        <v>12.20700418985297</v>
+        <v>13.21481949281723</v>
       </c>
     </row>
     <row r="35">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>53.86642443136415</v>
+        <v>2.440245156461023</v>
       </c>
       <c r="D35" t="n">
-        <v>57.456057502223</v>
+        <v>2.880916242049622</v>
       </c>
       <c r="E35" t="n">
-        <v>63.26187430073603</v>
+        <v>3.198585986536425</v>
       </c>
       <c r="F35" t="n">
-        <v>17.44212646106376</v>
+        <v>31.07641984525807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.517213987735329</v>
+        <v>91.26799782428381</v>
       </c>
       <c r="D36" t="n">
-        <v>4.206364733041904</v>
+        <v>91.98330822931013</v>
       </c>
       <c r="E36" t="n">
-        <v>5.064005266963315</v>
+        <v>103.1371696892224</v>
       </c>
       <c r="F36" t="n">
-        <v>12.10461316892618</v>
+        <v>13.00474662300584</v>
       </c>
     </row>
     <row r="37">
@@ -1266,22 +1266,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.618699948639625</v>
+        <v>80.82849201567893</v>
       </c>
       <c r="D37" t="n">
-        <v>3.987713324156904</v>
+        <v>88.88272193246979</v>
       </c>
       <c r="E37" t="n">
-        <v>4.315425007309899</v>
+        <v>96.31081883995294</v>
       </c>
       <c r="F37" t="n">
-        <v>19.25346308229267</v>
+        <v>19.15454122448651</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>77.48970163876064</v>
+        <v>15.59370393909133</v>
       </c>
       <c r="D38" t="n">
-        <v>76.40351544995981</v>
+        <v>15.5789319579716</v>
       </c>
       <c r="E38" t="n">
-        <v>86.77578665338726</v>
+        <v>17.60007617088811</v>
       </c>
       <c r="F38" t="n">
-        <v>11.98363759085851</v>
+        <v>12.86655331942699</v>
       </c>
     </row>
     <row r="39">
@@ -1310,22 +1310,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>65.51395122176199</v>
+        <v>11.82138541727971</v>
       </c>
       <c r="D39" t="n">
-        <v>73.19565687624473</v>
+        <v>13.32849064887864</v>
       </c>
       <c r="E39" t="n">
-        <v>80.17453381111775</v>
+        <v>15.16546310725304</v>
       </c>
       <c r="F39" t="n">
-        <v>22.37780246184559</v>
+        <v>28.28837375596585</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>16.65957257666136</v>
+        <v>76.74969751504148</v>
       </c>
       <c r="D40" t="n">
-        <v>16.29768755581978</v>
+        <v>76.6818443840906</v>
       </c>
       <c r="E40" t="n">
-        <v>18.52614447702483</v>
+        <v>86.44445893810969</v>
       </c>
       <c r="F40" t="n">
-        <v>11.20420041855316</v>
+        <v>12.63166075823064</v>
       </c>
     </row>
     <row r="41">
@@ -1354,22 +1354,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12.49036641265695</v>
+        <v>70.72879672055363</v>
       </c>
       <c r="D41" t="n">
-        <v>14.33096792174175</v>
+        <v>74.77471050276974</v>
       </c>
       <c r="E41" t="n">
-        <v>16.12575585749938</v>
+        <v>82.58892288068478</v>
       </c>
       <c r="F41" t="n">
-        <v>29.10554682493985</v>
+        <v>16.76845458998826</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1378,16 +1378,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.864738940870629</v>
+        <v>62.95749734015892</v>
       </c>
       <c r="D42" t="n">
-        <v>3.012331557587389</v>
+        <v>61.44855710706</v>
       </c>
       <c r="E42" t="n">
-        <v>3.185130243983958</v>
+        <v>70.82781662781403</v>
       </c>
       <c r="F42" t="n">
-        <v>11.18396160091147</v>
+        <v>12.50100404266679</v>
       </c>
     </row>
     <row r="43">
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.744147165923916</v>
+        <v>51.85531700331261</v>
       </c>
       <c r="D43" t="n">
-        <v>2.983472394947507</v>
+        <v>58.3989538125645</v>
       </c>
       <c r="E43" t="n">
-        <v>3.213056349755119</v>
+        <v>64.08204753818748</v>
       </c>
       <c r="F43" t="n">
-        <v>17.08761066658492</v>
+        <v>23.57854746909331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13.83319941888836</v>
+        <v>17.35177383036505</v>
       </c>
       <c r="D44" t="n">
-        <v>13.26679029523509</v>
+        <v>19.4543148011782</v>
       </c>
       <c r="E44" t="n">
-        <v>15.31797612483565</v>
+        <v>19.51870319530597</v>
       </c>
       <c r="F44" t="n">
-        <v>10.73342949079386</v>
+        <v>12.48822965378246</v>
       </c>
     </row>
     <row r="45">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9.86847938799604</v>
+        <v>18.14543599730243</v>
       </c>
       <c r="D45" t="n">
-        <v>11.40864607672706</v>
+        <v>18.97018349452429</v>
       </c>
       <c r="E45" t="n">
-        <v>13.03439753150214</v>
+        <v>20.17581028264867</v>
       </c>
       <c r="F45" t="n">
-        <v>32.08111421256152</v>
+        <v>11.18944888206645</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19.20340403107495</v>
+        <v>6.23734208725539</v>
       </c>
       <c r="D46" t="n">
-        <v>20.1181091991524</v>
+        <v>6.373011028216816</v>
       </c>
       <c r="E46" t="n">
-        <v>21.07263745171105</v>
+        <v>7.005592049041718</v>
       </c>
       <c r="F46" t="n">
-        <v>9.733864983579503</v>
+        <v>12.31694447793836</v>
       </c>
     </row>
     <row r="47">
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18.86671932001561</v>
+        <v>4.891342481505492</v>
       </c>
       <c r="D47" t="n">
-        <v>20.01752234500624</v>
+        <v>5.739298815154657</v>
       </c>
       <c r="E47" t="n">
-        <v>21.45767785538708</v>
+        <v>6.23119532036499</v>
       </c>
       <c r="F47" t="n">
-        <v>13.73295744439647</v>
+        <v>27.39233337116702</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1510,16 +1510,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29.93879654468843</v>
+        <v>60.35705093175095</v>
       </c>
       <c r="D48" t="n">
-        <v>27.84343927553475</v>
+        <v>59.43767060762536</v>
       </c>
       <c r="E48" t="n">
-        <v>27.41551230945307</v>
+        <v>67.72483866786148</v>
       </c>
       <c r="F48" t="n">
-        <v>-8.428141830847993</v>
+        <v>12.20700418985297</v>
       </c>
     </row>
     <row r="49">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>28.79810380410865</v>
+        <v>53.86642443136415</v>
       </c>
       <c r="D49" t="n">
-        <v>29.41445596678595</v>
+        <v>57.456057502223</v>
       </c>
       <c r="E49" t="n">
-        <v>28.82947715268287</v>
+        <v>63.26187430073603</v>
       </c>
       <c r="F49" t="n">
-        <v>0.108942410887985</v>
+        <v>17.44212646106376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1554,16 +1554,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17.18384528706732</v>
+        <v>4.517213987735329</v>
       </c>
       <c r="D50" t="n">
-        <v>17.14009536969377</v>
+        <v>4.206364733041904</v>
       </c>
       <c r="E50" t="n">
-        <v>18.54999338279208</v>
+        <v>5.064005266963315</v>
       </c>
       <c r="F50" t="n">
-        <v>7.950188522431199</v>
+        <v>12.10461316892618</v>
       </c>
     </row>
     <row r="51">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16.53331225786203</v>
+        <v>3.618699948639625</v>
       </c>
       <c r="D51" t="n">
-        <v>16.85865807499577</v>
+        <v>3.987713324156904</v>
       </c>
       <c r="E51" t="n">
-        <v>18.68158928812503</v>
+        <v>4.315425007309899</v>
       </c>
       <c r="F51" t="n">
-        <v>12.99362763345526</v>
+        <v>19.25346308229267</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22.02069704030149</v>
+        <v>77.48970163876064</v>
       </c>
       <c r="D52" t="n">
-        <v>19.19618060094641</v>
+        <v>76.40351544995981</v>
       </c>
       <c r="E52" t="n">
-        <v>20.44579215155953</v>
+        <v>86.77578665338726</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.151930231180318</v>
+        <v>11.98363759085851</v>
       </c>
     </row>
     <row r="53">
@@ -1618,22 +1618,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18.07146262175966</v>
+        <v>65.51395122176199</v>
       </c>
       <c r="D53" t="n">
-        <v>18.56048586333947</v>
+        <v>73.19565687624473</v>
       </c>
       <c r="E53" t="n">
-        <v>19.19621465662603</v>
+        <v>80.17453381111775</v>
       </c>
       <c r="F53" t="n">
-        <v>6.223912576462237</v>
+        <v>22.37780246184559</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.510414154475491</v>
+        <v>7.117439085510587</v>
       </c>
       <c r="D54" t="n">
-        <v>1.461505756308612</v>
+        <v>8.168103777944141</v>
       </c>
       <c r="E54" t="n">
-        <v>1.616317785566582</v>
+        <v>7.92266279152967</v>
       </c>
       <c r="F54" t="n">
-        <v>7.01156241003757</v>
+        <v>11.31339090289269</v>
       </c>
     </row>
     <row r="55">
@@ -1662,22 +1662,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.343940772109371</v>
+        <v>8.1503955970351</v>
       </c>
       <c r="D55" t="n">
-        <v>1.497619421302243</v>
+        <v>8.393344834405603</v>
       </c>
       <c r="E55" t="n">
-        <v>1.597280398074337</v>
+        <v>8.597639609095884</v>
       </c>
       <c r="F55" t="n">
-        <v>18.85050526202421</v>
+        <v>5.487390234450454</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1686,16 +1686,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>69.47776935274435</v>
+        <v>16.65957257666136</v>
       </c>
       <c r="D56" t="n">
-        <v>67.89836563524774</v>
+        <v>16.29768755581978</v>
       </c>
       <c r="E56" t="n">
-        <v>65.26093577501423</v>
+        <v>18.52614447702483</v>
       </c>
       <c r="F56" t="n">
-        <v>-6.069327810915897</v>
+        <v>11.20420041855316</v>
       </c>
     </row>
     <row r="57">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>67.5963085067548</v>
+        <v>12.49036641265695</v>
       </c>
       <c r="D57" t="n">
-        <v>68.57840949351265</v>
+        <v>14.33096792174175</v>
       </c>
       <c r="E57" t="n">
-        <v>64.25097355208202</v>
+        <v>16.12575585749938</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.94899060107474</v>
+        <v>29.10554682493985</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>67.65907943329671</v>
+        <v>2.864738940870629</v>
       </c>
       <c r="D58" t="n">
-        <v>66.06582947593299</v>
+        <v>3.012331557587389</v>
       </c>
       <c r="E58" t="n">
-        <v>63.79663852730737</v>
+        <v>3.185130243983958</v>
       </c>
       <c r="F58" t="n">
-        <v>-5.708680842749602</v>
+        <v>11.18396160091147</v>
       </c>
     </row>
     <row r="59">
@@ -1750,22 +1750,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>66.11674861891917</v>
+        <v>2.744147165923916</v>
       </c>
       <c r="D59" t="n">
-        <v>67.29667519656961</v>
+        <v>2.983472394947507</v>
       </c>
       <c r="E59" t="n">
-        <v>62.74636097489238</v>
+        <v>3.213056349755119</v>
       </c>
       <c r="F59" t="n">
-        <v>-5.097630652488502</v>
+        <v>17.08761066658492</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1774,16 +1774,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>69.20628616464134</v>
+        <v>28.13791616461368</v>
       </c>
       <c r="D60" t="n">
-        <v>67.66736373022863</v>
+        <v>30.44271084529697</v>
       </c>
       <c r="E60" t="n">
-        <v>65.38722993464907</v>
+        <v>31.26552914885294</v>
       </c>
       <c r="F60" t="n">
-        <v>-5.518366093084028</v>
+        <v>11.11529711703582</v>
       </c>
     </row>
     <row r="61">
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>67.60655125416311</v>
+        <v>26.32778299520219</v>
       </c>
       <c r="D61" t="n">
-        <v>68.90440879639522</v>
+        <v>29.7188696915622</v>
       </c>
       <c r="E61" t="n">
-        <v>65.21654156881303</v>
+        <v>30.39989267914375</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.535174685016797</v>
+        <v>15.46696766941462</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -1818,16 +1818,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.793108130138789</v>
+        <v>643.2116756544413</v>
       </c>
       <c r="D62" t="n">
-        <v>7.659676255048169</v>
+        <v>670.369848592433</v>
       </c>
       <c r="E62" t="n">
-        <v>8.190240281646732</v>
+        <v>714.1098715633161</v>
       </c>
       <c r="F62" t="n">
-        <v>5.095940475560559</v>
+        <v>11.02252937755505</v>
       </c>
     </row>
     <row r="63">
@@ -1838,22 +1838,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6.999196062567445</v>
+        <v>584.656985649243</v>
       </c>
       <c r="D63" t="n">
-        <v>7.855978866600682</v>
+        <v>618.5263495506432</v>
       </c>
       <c r="E63" t="n">
-        <v>8.449312368547409</v>
+        <v>666.2762848361501</v>
       </c>
       <c r="F63" t="n">
-        <v>20.71832669090901</v>
+        <v>13.96020251024137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>16.09769139157823</v>
+        <v>13.83319941888836</v>
       </c>
       <c r="D64" t="n">
-        <v>15.80552951665432</v>
+        <v>13.26679029523509</v>
       </c>
       <c r="E64" t="n">
-        <v>16.88538319807508</v>
+        <v>15.31797612483565</v>
       </c>
       <c r="F64" t="n">
-        <v>4.893197337035209</v>
+        <v>10.73342949079386</v>
       </c>
     </row>
     <row r="65">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14.18245514351734</v>
+        <v>9.86847938799604</v>
       </c>
       <c r="D65" t="n">
-        <v>15.77002763051491</v>
+        <v>11.40864607672706</v>
       </c>
       <c r="E65" t="n">
-        <v>17.07793803699742</v>
+        <v>13.03439753150214</v>
       </c>
       <c r="F65" t="n">
-        <v>20.41594959532499</v>
+        <v>32.08111421256152</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_low_pressures_received_per_30_min_tip</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>69.66935768888001</v>
+        <v>33.65075925996624</v>
       </c>
       <c r="D66" t="n">
-        <v>67.63476964485952</v>
+        <v>37.84967774337643</v>
       </c>
       <c r="E66" t="n">
-        <v>66.33539009640845</v>
+        <v>37.25118393795602</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.785414568281149</v>
+        <v>10.69938615701056</v>
       </c>
     </row>
     <row r="67">
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>67.73392893121103</v>
+        <v>33.10685783860814</v>
       </c>
       <c r="D67" t="n">
-        <v>69.0482171369524</v>
+        <v>36.11089173714128</v>
       </c>
       <c r="E67" t="n">
-        <v>65.07082769935018</v>
+        <v>37.1363822445346</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.931709372071761</v>
+        <v>12.17126803627787</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -1950,16 +1950,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.41249797004445</v>
+        <v>26.53364206663281</v>
       </c>
       <c r="D68" t="n">
-        <v>7.979033697752797</v>
+        <v>29.68093707286463</v>
       </c>
       <c r="E68" t="n">
-        <v>8.771641647253919</v>
+        <v>29.32906000780711</v>
       </c>
       <c r="F68" t="n">
-        <v>4.269168069797119</v>
+        <v>10.53537216698064</v>
       </c>
     </row>
     <row r="69">
@@ -1970,22 +1970,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.780957729219</v>
+        <v>24.9562032115313</v>
       </c>
       <c r="D69" t="n">
-        <v>7.910556348027777</v>
+        <v>27.7173080173799</v>
       </c>
       <c r="E69" t="n">
-        <v>8.6196950759535</v>
+        <v>28.53903672199992</v>
       </c>
       <c r="F69" t="n">
-        <v>10.77935873607023</v>
+        <v>14.35648475892012</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30.85772974566634</v>
+        <v>561.09905060595</v>
       </c>
       <c r="D70" t="n">
-        <v>29.03241557216747</v>
+        <v>562.4689963111388</v>
       </c>
       <c r="E70" t="n">
-        <v>29.60760713956032</v>
+        <v>619.0347557398957</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.051246207707763</v>
+        <v>10.32539710615781</v>
       </c>
     </row>
     <row r="71">
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>29.45950878070241</v>
+        <v>482.537504558669</v>
       </c>
       <c r="D71" t="n">
-        <v>29.45111304321875</v>
+        <v>527.811483563939</v>
       </c>
       <c r="E71" t="n">
-        <v>28.92710311937264</v>
+        <v>567.3617720619791</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.807245549452374</v>
+        <v>17.57879267454884</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_low_pressures_received_per_100_pressures</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2038,16 +2038,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>47.09494649786234</v>
+        <v>796.6173774541794</v>
       </c>
       <c r="D72" t="n">
-        <v>45.73088532487562</v>
+        <v>851.3368647385936</v>
       </c>
       <c r="E72" t="n">
-        <v>48.20684748018029</v>
+        <v>877.9400922542616</v>
       </c>
       <c r="F72" t="n">
-        <v>2.360977270392308</v>
+        <v>10.20850374366328</v>
       </c>
     </row>
     <row r="73">
@@ -2058,22 +2058,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40.71253207576741</v>
+        <v>763.3971910977415</v>
       </c>
       <c r="D73" t="n">
-        <v>43.17147613817603</v>
+        <v>795.7717164634571</v>
       </c>
       <c r="E73" t="n">
-        <v>44.34708230359838</v>
+        <v>850.6922096384759</v>
       </c>
       <c r="F73" t="n">
-        <v>8.927349989106405</v>
+        <v>11.43507201214703</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>count_completed_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>49.68462784003754</v>
+        <v>22.79829606978433</v>
       </c>
       <c r="D74" t="n">
-        <v>49.49955175283417</v>
+        <v>24.7915499948604</v>
       </c>
       <c r="E74" t="n">
-        <v>50.69211739554204</v>
+        <v>25.08434994073196</v>
       </c>
       <c r="F74" t="n">
-        <v>2.027769149742201</v>
+        <v>10.02730144371381</v>
       </c>
     </row>
     <row r="75">
@@ -2102,22 +2102,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>44.7183698334349</v>
+        <v>20.37980200851191</v>
       </c>
       <c r="D75" t="n">
-        <v>46.10702309423104</v>
+        <v>23.22423998298575</v>
       </c>
       <c r="E75" t="n">
-        <v>47.41532395453828</v>
+        <v>23.99866669921822</v>
       </c>
       <c r="F75" t="n">
-        <v>6.030975930359006</v>
+        <v>17.75711407399758</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2126,16 +2126,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9.447270746766748</v>
+        <v>19.20340403107495</v>
       </c>
       <c r="D76" t="n">
-        <v>9.058129895141162</v>
+        <v>20.1181091991524</v>
       </c>
       <c r="E76" t="n">
-        <v>9.388398995518534</v>
+        <v>21.07263745171105</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6231614698706729</v>
+        <v>9.733864983579503</v>
       </c>
     </row>
     <row r="77">
@@ -2146,22 +2146,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.485924066797262</v>
+        <v>18.86671932001561</v>
       </c>
       <c r="D77" t="n">
-        <v>9.155322920628318</v>
+        <v>20.01752234500624</v>
       </c>
       <c r="E77" t="n">
-        <v>9.188153106081415</v>
+        <v>21.45767785538708</v>
       </c>
       <c r="F77" t="n">
-        <v>8.275221811514363</v>
+        <v>13.73295744439647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2170,16 +2170,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17.16747255953418</v>
+        <v>99.32208044753231</v>
       </c>
       <c r="D78" t="n">
-        <v>16.08604011212655</v>
+        <v>90.75690050910234</v>
       </c>
       <c r="E78" t="n">
-        <v>17.09933544338354</v>
+        <v>89.9116369851745</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.396896607315637</v>
+        <v>-9.474674130823267</v>
       </c>
     </row>
     <row r="79">
@@ -2190,59 +2190,2489 @@
         </is>
       </c>
       <c r="C79" t="n">
+        <v>88.51097290658689</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90.08121310223213</v>
+      </c>
+      <c r="E79" t="n">
+        <v>89.28368829223766</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8730164862906679</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>680.3816702700962</v>
+      </c>
+      <c r="D80" t="n">
+        <v>694.4990133838908</v>
+      </c>
+      <c r="E80" t="n">
+        <v>744.0879837205897</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9.363320064928201</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>613.7672328252969</v>
+      </c>
+      <c r="D81" t="n">
+        <v>663.617773496413</v>
+      </c>
+      <c r="E81" t="n">
+        <v>706.2728806992631</v>
+      </c>
+      <c r="F81" t="n">
+        <v>15.07178013530367</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>154.8550984800956</v>
+      </c>
+      <c r="D82" t="n">
+        <v>170.7140523335921</v>
+      </c>
+      <c r="E82" t="n">
+        <v>168.8520469299702</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.038739174398987</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>178.2917635782367</v>
+      </c>
+      <c r="D83" t="n">
+        <v>181.8437272157989</v>
+      </c>
+      <c r="E83" t="n">
+        <v>179.4689187041386</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6602408895828437</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>29.93879654468843</v>
+      </c>
+      <c r="D84" t="n">
+        <v>27.84343927553475</v>
+      </c>
+      <c r="E84" t="n">
+        <v>27.41551230945307</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-8.428141830847993</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>28.79810380410865</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29.41445596678595</v>
+      </c>
+      <c r="E85" t="n">
+        <v>28.82947715268287</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.108942410887985</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>17.18384528706732</v>
+      </c>
+      <c r="D86" t="n">
+        <v>17.14009536969377</v>
+      </c>
+      <c r="E86" t="n">
+        <v>18.54999338279208</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.950188522431199</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>16.53331225786203</v>
+      </c>
+      <c r="D87" t="n">
+        <v>16.85865807499577</v>
+      </c>
+      <c r="E87" t="n">
+        <v>18.68158928812503</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.99362763345526</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>215.8177855021887</v>
+      </c>
+      <c r="D88" t="n">
+        <v>240.5172587393626</v>
+      </c>
+      <c r="E88" t="n">
+        <v>232.8161990958417</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7.876280239878832</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>254.0809192090529</v>
+      </c>
+      <c r="D89" t="n">
+        <v>254.3715093954938</v>
+      </c>
+      <c r="E89" t="n">
+        <v>254.083383409322</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0009698486123191127</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>127.5591468715385</v>
+      </c>
+      <c r="D90" t="n">
+        <v>134.7752740610226</v>
+      </c>
+      <c r="E90" t="n">
+        <v>137.5816783914227</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7.857164120090613</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>129.7417730908775</v>
+      </c>
+      <c r="D91" t="n">
+        <v>138.0335810959266</v>
+      </c>
+      <c r="E91" t="n">
+        <v>140.4847637023279</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8.280286568864385</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>14.77686103876962</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15.61546759327957</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.70521938389866</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-7.252160334047448</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>15.08940423170674</v>
+      </c>
+      <c r="D93" t="n">
+        <v>16.0166595624238</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16.60205057211949</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10.02455973201574</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>22.02069704030149</v>
+      </c>
+      <c r="D94" t="n">
+        <v>19.19618060094641</v>
+      </c>
+      <c r="E94" t="n">
+        <v>20.44579215155953</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-7.151930231180318</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>18.07146262175966</v>
+      </c>
+      <c r="D95" t="n">
+        <v>18.56048586333947</v>
+      </c>
+      <c r="E95" t="n">
+        <v>19.19621465662603</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.223912576462237</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.510414154475491</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.461505756308612</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.616317785566582</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.01156241003757</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1.343940772109371</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.497619421302243</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.597280398074337</v>
+      </c>
+      <c r="F97" t="n">
+        <v>18.85050526202421</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>153.4057017997382</v>
+      </c>
+      <c r="D98" t="n">
+        <v>180.9670161461606</v>
+      </c>
+      <c r="E98" t="n">
+        <v>163.8302206909454</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6.795392067509786</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>178.7402054484984</v>
+      </c>
+      <c r="D99" t="n">
+        <v>177.2453669128137</v>
+      </c>
+      <c r="E99" t="n">
+        <v>184.4159248023261</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.175401605691338</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>108.984029609111</v>
+      </c>
+      <c r="D100" t="n">
+        <v>112.6372801319215</v>
+      </c>
+      <c r="E100" t="n">
+        <v>115.6854840981155</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6.149024323141965</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>105.8510698676282</v>
+      </c>
+      <c r="D101" t="n">
+        <v>113.4014914227396</v>
+      </c>
+      <c r="E101" t="n">
+        <v>116.393352118622</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9.959542462988281</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>69.47776935274435</v>
+      </c>
+      <c r="D102" t="n">
+        <v>67.89836563524774</v>
+      </c>
+      <c r="E102" t="n">
+        <v>65.26093577501423</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-6.069327810915897</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>67.5963085067548</v>
+      </c>
+      <c r="D103" t="n">
+        <v>68.57840949351265</v>
+      </c>
+      <c r="E103" t="n">
+        <v>64.25097355208202</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-4.94899060107474</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>67.65907943329671</v>
+      </c>
+      <c r="D104" t="n">
+        <v>66.06582947593299</v>
+      </c>
+      <c r="E104" t="n">
+        <v>63.79663852730737</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-5.708680842749602</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>66.11674861891917</v>
+      </c>
+      <c r="D105" t="n">
+        <v>67.29667519656961</v>
+      </c>
+      <c r="E105" t="n">
+        <v>62.74635964289106</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-5.09763266710863</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>13.33642467383661</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15.11193714399481</v>
+      </c>
+      <c r="E106" t="n">
+        <v>14.08716265318722</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5.62922970519532</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>12.11214567061082</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13.60820068477626</v>
+      </c>
+      <c r="E107" t="n">
+        <v>14.14955988909622</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16.82124929713348</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>69.20628616464134</v>
+      </c>
+      <c r="D108" t="n">
+        <v>67.66736373022863</v>
+      </c>
+      <c r="E108" t="n">
+        <v>65.38723293456432</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-5.518361758340149</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>67.60655125416311</v>
+      </c>
+      <c r="D109" t="n">
+        <v>68.90440879639522</v>
+      </c>
+      <c r="E109" t="n">
+        <v>65.21654156881303</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3.535174685016797</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>200.5963563156512</v>
+      </c>
+      <c r="D110" t="n">
+        <v>189.9318543518067</v>
+      </c>
+      <c r="E110" t="n">
+        <v>189.8756937774632</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-5.344395449196647</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>190.0722813880893</v>
+      </c>
+      <c r="D111" t="n">
+        <v>190.6543042475366</v>
+      </c>
+      <c r="E111" t="n">
+        <v>195.9151377276124</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.07401810345676</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>166.3283526731048</v>
+      </c>
+      <c r="D112" t="n">
+        <v>178.1066322470724</v>
+      </c>
+      <c r="E112" t="n">
+        <v>175.145088885287</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.300801739743238</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>171.9315147276493</v>
+      </c>
+      <c r="D113" t="n">
+        <v>183.699038227469</v>
+      </c>
+      <c r="E113" t="n">
+        <v>183.9397732321087</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6.984326592760668</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>55.78864156774419</v>
+      </c>
+      <c r="D114" t="n">
+        <v>48.4091333604715</v>
+      </c>
+      <c r="E114" t="n">
+        <v>52.93577163831943</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-5.113711051667236</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>41.98867597978241</v>
+      </c>
+      <c r="D115" t="n">
+        <v>46.15768860016796</v>
+      </c>
+      <c r="E115" t="n">
+        <v>51.76927713445885</v>
+      </c>
+      <c r="F115" t="n">
+        <v>23.29342596891078</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>7.793108130138788</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.659676255048169</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8.190240281646732</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5.09594047556057</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>6.999196062567445</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.855978866600682</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.449312368547409</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20.71832669090901</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>106.5798563348359</v>
+      </c>
+      <c r="D118" t="n">
+        <v>106.5176036068603</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101.2302616936407</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-5.019329942037739</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>106.277811587891</v>
+      </c>
+      <c r="D119" t="n">
+        <v>107.0177767121611</v>
+      </c>
+      <c r="E119" t="n">
+        <v>108.3780269175204</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.976155980491403</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>60.96062720620417</v>
+      </c>
+      <c r="D120" t="n">
+        <v>69.80285556525145</v>
+      </c>
+      <c r="E120" t="n">
+        <v>63.96613952701654</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4.93025163708698</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>75.78878569942685</v>
+      </c>
+      <c r="D121" t="n">
+        <v>72.52896794239</v>
+      </c>
+      <c r="E121" t="n">
+        <v>74.6142030322771</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-1.549810643236935</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>16.09769139157823</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15.80552951665432</v>
+      </c>
+      <c r="E122" t="n">
+        <v>16.88538319807508</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.893197337035209</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>14.18245514351734</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15.77002763051491</v>
+      </c>
+      <c r="E123" t="n">
+        <v>17.07793803699742</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20.41594959532499</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>137.2163110038495</v>
+      </c>
+      <c r="D124" t="n">
+        <v>143.0269010670311</v>
+      </c>
+      <c r="E124" t="n">
+        <v>143.8817353440324</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.857603510413465</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>134.8899042651666</v>
+      </c>
+      <c r="D125" t="n">
+        <v>146.1666905946865</v>
+      </c>
+      <c r="E125" t="n">
+        <v>147.5577635223999</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9.391258245932777</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>142.3396709233897</v>
+      </c>
+      <c r="D126" t="n">
+        <v>150.7025585618107</v>
+      </c>
+      <c r="E126" t="n">
+        <v>149.2248257766119</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.837129950179477</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>155.2094813042887</v>
+      </c>
+      <c r="D127" t="n">
+        <v>158.1292099529002</v>
+      </c>
+      <c r="E127" t="n">
+        <v>161.049210377833</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.762482178582587</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>69.66935768888001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>67.63476964485952</v>
+      </c>
+      <c r="E128" t="n">
+        <v>66.33539009640845</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-4.785414568281149</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>67.73392893121103</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69.0482171369524</v>
+      </c>
+      <c r="E129" t="n">
+        <v>65.07082769935018</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-3.931709372071761</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>30.95619663904695</v>
+      </c>
+      <c r="D130" t="n">
+        <v>32.81076730778278</v>
+      </c>
+      <c r="E130" t="n">
+        <v>29.4875198436197</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-4.744370933394062</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>30.46204822965429</v>
+      </c>
+      <c r="D131" t="n">
+        <v>33.80068107138911</v>
+      </c>
+      <c r="E131" t="n">
+        <v>33.29833742825132</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.310894583365364</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>109.9016611970846</v>
+      </c>
+      <c r="D132" t="n">
+        <v>115.1180935189667</v>
+      </c>
+      <c r="E132" t="n">
+        <v>115.0734508650461</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.705833935200515</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>116.0867574942237</v>
+      </c>
+      <c r="D133" t="n">
+        <v>120.0507054605149</v>
+      </c>
+      <c r="E133" t="n">
+        <v>120.8929010763498</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4.140130783104413</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>8.41249797004445</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.979033697752797</v>
+      </c>
+      <c r="E134" t="n">
+        <v>8.771641647253919</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4.269168069797119</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>7.780957729219</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.910556348027777</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8.6196950759535</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10.77935873607023</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>30.85772974566634</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.03241557216747</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.60760713956032</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-4.051246207707763</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>29.45950878070241</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.45111304321875</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28.92710311937264</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.807245549452374</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>119.7096388897252</v>
+      </c>
+      <c r="D138" t="n">
+        <v>122.963722788889</v>
+      </c>
+      <c r="E138" t="n">
+        <v>124.2444988381813</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.788216212592162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>133.8033226193006</v>
+      </c>
+      <c r="D139" t="n">
+        <v>138.4688335147295</v>
+      </c>
+      <c r="E139" t="n">
+        <v>138.4681578195836</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.486337341229925</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>902.1499743705466</v>
+      </c>
+      <c r="D140" t="n">
+        <v>913.0064517913021</v>
+      </c>
+      <c r="E140" t="n">
+        <v>936.2419243687821</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.778967019538221</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>884.7745435218593</v>
+      </c>
+      <c r="D141" t="n">
+        <v>913.5821392832679</v>
+      </c>
+      <c r="E141" t="n">
+        <v>915.7232299382333</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.497917819061823</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>337.6801189739342</v>
+      </c>
+      <c r="D142" t="n">
+        <v>357.5537490558921</v>
+      </c>
+      <c r="E142" t="n">
+        <v>349.4184798483571</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.476177664853592</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>367.1324370555199</v>
+      </c>
+      <c r="D143" t="n">
+        <v>360.0373482916972</v>
+      </c>
+      <c r="E143" t="n">
+        <v>364.5674619989682</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.6986511671709934</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>221.8294909726575</v>
+      </c>
+      <c r="D144" t="n">
+        <v>222.8857183557609</v>
+      </c>
+      <c r="E144" t="n">
+        <v>214.355663501651</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-3.369176676300333</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>216.6034800682718</v>
+      </c>
+      <c r="D145" t="n">
+        <v>223.6848882430994</v>
+      </c>
+      <c r="E145" t="n">
+        <v>223.6972135105384</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.274985905134418</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>38.76978818780783</v>
+      </c>
+      <c r="D146" t="n">
+        <v>43.33229326323041</v>
+      </c>
+      <c r="E146" t="n">
+        <v>37.56224607641398</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-3.1146471720307</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>42.18785581668546</v>
+      </c>
+      <c r="D147" t="n">
+        <v>45.66517723605286</v>
+      </c>
+      <c r="E147" t="n">
+        <v>43.45461188397237</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3.00265572346509</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1214.801805801838</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1249.477893366354</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1249.69380557974</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.872238056550401</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1231.358993002274</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1252.244822512379</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1247.9682800844</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.348858227090127</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1180.048674209591</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1205.036367707447</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1213.836505329722</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.86325741120487</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1184.5196483201</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1212.325636161381</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1212.764290897712</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.384480714833976</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>762.5904855664609</v>
+      </c>
+      <c r="D152" t="n">
+        <v>760.437592797706</v>
+      </c>
+      <c r="E152" t="n">
+        <v>783.714554244178</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.77004094301359</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>723.876622978523</v>
+      </c>
+      <c r="D153" t="n">
+        <v>755.6301226904338</v>
+      </c>
+      <c r="E153" t="n">
+        <v>761.2016323130617</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5.156266710335</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>877.1216868279041</v>
+      </c>
+      <c r="D154" t="n">
+        <v>891.9241443104622</v>
+      </c>
+      <c r="E154" t="n">
+        <v>900.2753257313831</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.639729384324507</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>864.2265559467545</v>
+      </c>
+      <c r="D155" t="n">
+        <v>892.2074742206818</v>
+      </c>
+      <c r="E155" t="n">
+        <v>883.400818085432</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.218661531138927</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>960.3496646707288</v>
+      </c>
+      <c r="D156" t="n">
+        <v>968.5043900623037</v>
+      </c>
+      <c r="E156" t="n">
+        <v>983.8687172250208</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.449009295208727</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>931.8988169408281</v>
+      </c>
+      <c r="D157" t="n">
+        <v>968.0012429118084</v>
+      </c>
+      <c r="E157" t="n">
+        <v>970.9704354907218</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4.192688931418038</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>47.09494649786234</v>
+      </c>
+      <c r="D158" t="n">
+        <v>45.73088532487562</v>
+      </c>
+      <c r="E158" t="n">
+        <v>48.20684748018029</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.360977270392308</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>40.71253207576741</v>
+      </c>
+      <c r="D159" t="n">
+        <v>43.17147613817603</v>
+      </c>
+      <c r="E159" t="n">
+        <v>44.34708230359838</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.927349989106405</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>15.80510479922037</v>
+      </c>
+      <c r="D160" t="n">
+        <v>16.14074578077843</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15.45419392766676</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.220237549901715</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>16.90710847390597</v>
+      </c>
+      <c r="D161" t="n">
+        <v>17.91068614404699</v>
+      </c>
+      <c r="E161" t="n">
+        <v>17.33098007225263</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.507061446969824</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>103.7393658710915</v>
+      </c>
+      <c r="D162" t="n">
+        <v>102.0939646532769</v>
+      </c>
+      <c r="E162" t="n">
+        <v>105.9821086016668</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.161901330071961</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>83.95634014432521</v>
+      </c>
+      <c r="D163" t="n">
+        <v>92.72808107935892</v>
+      </c>
+      <c r="E163" t="n">
+        <v>99.89477354737737</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18.98419270736812</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>49.68462784003753</v>
+      </c>
+      <c r="D164" t="n">
+        <v>49.49955175283417</v>
+      </c>
+      <c r="E164" t="n">
+        <v>50.69211739554204</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.027769149742216</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>44.7183698334349</v>
+      </c>
+      <c r="D165" t="n">
+        <v>46.10702309423104</v>
+      </c>
+      <c r="E165" t="n">
+        <v>47.41532395453828</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6.030975930359006</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>10.03721879702218</v>
+      </c>
+      <c r="D166" t="n">
+        <v>10.0014156366327</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.854675476098208</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-1.818664359275825</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>9.282793940653958</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10.0508336470641</v>
+      </c>
+      <c r="E167" t="n">
+        <v>10.48909729602451</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.99504613678384</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>645.533525725403</v>
+      </c>
+      <c r="D168" t="n">
+        <v>626.9367329393447</v>
+      </c>
+      <c r="E168" t="n">
+        <v>636.2630827112628</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-1.436090093651265</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>590.0395996916844</v>
+      </c>
+      <c r="D169" t="n">
+        <v>618.3019196637832</v>
+      </c>
+      <c r="E169" t="n">
+        <v>621.6284433653075</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5.353681971537043</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>63.38021609580245</v>
+      </c>
+      <c r="D170" t="n">
+        <v>57.24114643310305</v>
+      </c>
+      <c r="E170" t="n">
+        <v>64.2679407452992</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.400633674323396</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>64.6981266464566</v>
+      </c>
+      <c r="D171" t="n">
+        <v>69.82560260523745</v>
+      </c>
+      <c r="E171" t="n">
+        <v>68.32334131922326</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.603276108096101</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>834.7627770523138</v>
+      </c>
+      <c r="D172" t="n">
+        <v>816.4678485514736</v>
+      </c>
+      <c r="E172" t="n">
+        <v>823.821677027611</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.310683744588808</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>788.3947375370475</v>
+      </c>
+      <c r="D173" t="n">
+        <v>814.8864046490968</v>
+      </c>
+      <c r="E173" t="n">
+        <v>825.1169800611206</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4.657849776977672</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>7.111895589420707</v>
+      </c>
+      <c r="D174" t="n">
+        <v>7.481838111241871</v>
+      </c>
+      <c r="E174" t="n">
+        <v>7.199997413343641</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.238795238417028</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>6.154478980724469</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.603797331214796</v>
+      </c>
+      <c r="E175" t="n">
+        <v>7.41707215271707</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20.51502939480307</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2.598880282536359</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.746854450843532</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.567882931107999</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-1.192719481410965</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2.857164995903886</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.423472572964977</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.04319147485489</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6.510876313327971</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>33.33089306357254</v>
+      </c>
+      <c r="D178" t="n">
+        <v>35.34017185197938</v>
+      </c>
+      <c r="E178" t="n">
+        <v>33.63639276440158</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.9165662025507512</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>36.83699661478686</v>
+      </c>
+      <c r="D179" t="n">
+        <v>37.50826178970418</v>
+      </c>
+      <c r="E179" t="n">
+        <v>38.70646225672278</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5.074967597074667</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>49.93283344759801</v>
+      </c>
+      <c r="D180" t="n">
+        <v>46.86659329257358</v>
+      </c>
+      <c r="E180" t="n">
+        <v>50.26677112413611</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.6687737376020324</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>40.86310049076233</v>
+      </c>
+      <c r="D181" t="n">
+        <v>44.28044290473652</v>
+      </c>
+      <c r="E181" t="n">
+        <v>46.53125589454241</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13.871085002621</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>9.447270746766748</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9.058129895141162</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9.388398995518534</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.6231614698706729</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>8.485924066797262</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9.155322920628318</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9.188153106081415</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8.275221811514363</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>17.16747255953418</v>
+      </c>
+      <c r="D184" t="n">
+        <v>16.08604011212655</v>
+      </c>
+      <c r="E184" t="n">
+        <v>17.09933544338354</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.396896607315637</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>13.87881218909822</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D185" t="n">
         <v>15.03665972802341</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E185" t="n">
         <v>16.11574960881844</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F185" t="n">
         <v>16.11764313287078</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>277.8986998390445</v>
+      </c>
+      <c r="D186" t="n">
+        <v>292.0299159161447</v>
+      </c>
+      <c r="E186" t="n">
+        <v>277.5945809609403</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.1094351568684319</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>Top 15</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>299.7451047982401</v>
+      </c>
+      <c r="D187" t="n">
+        <v>298.7434968781132</v>
+      </c>
+      <c r="E187" t="n">
+        <v>297.0410609594783</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.9021144283847233</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="93">
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A88:A89"/>
     <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A84:A85"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A146:A147"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A126:A127"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A150:A151"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A100:A101"/>
     <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A142:A143"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A176:A177"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A114:A115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
